--- a/文档/参数算法(1).xlsx
+++ b/文档/参数算法(1).xlsx
@@ -279,9 +279,6 @@
     <t>1.</t>
   </si>
   <si>
-    <t>dBm=V*31.25+8.75</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
@@ -324,6 +321,10 @@
   </si>
   <si>
     <t>W=(10^(dBm/10))/1000</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dBm=V*31.25+8.75</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -878,7 +879,7 @@
   <dimension ref="B2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1126,15 +1127,15 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1142,7 +1143,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1152,26 +1153,26 @@
     </row>
     <row r="39" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="16" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="D41" s="14"/>
     </row>

--- a/文档/参数算法(1).xlsx
+++ b/文档/参数算法(1).xlsx
@@ -108,37 +108,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>V=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>((0~FFF)value)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/4.96*3.3</t>
-    </r>
-  </si>
-  <si>
     <t>功率电压比试验后提供</t>
   </si>
   <si>
@@ -329,6 +298,31 @@
   </si>
   <si>
     <t>VSWR=（1+（反向功率dBm/正向功率dBm）^(1/2)）/（1-（反向功率dBm/正向功率dBm）^(1/2)）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((0~FFF)value)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/4095*3.3</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +873,7 @@
   <dimension ref="B2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -969,10 +963,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -980,13 +974,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -994,10 +988,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1006,13 +1000,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1020,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1034,13 +1028,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1048,13 +1042,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1056,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1074,10 +1068,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1086,10 +1080,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1098,10 +1092,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1110,32 +1104,32 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1143,36 +1137,36 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="16" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="D41" s="14"/>
     </row>
